--- a/Project1Rubric_Cattermole.xlsx
+++ b/Project1Rubric_Cattermole.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tevis\Documents\WestMEC\START\Projects\Project1WebEssay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tevis\Documents\WestMEC\START\Projects\Project1WebEssay\Session1Graded\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rough Draft (30 pts)" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -184,6 +184,12 @@
   <si>
     <t>30/30</t>
   </si>
+  <si>
+    <t>Your images on lines 77 and 98 are hyperlinks to other pages rather than to resources in your own source control.  Linking to external images is not a good idea (and I've mentioned this a few times in class)</t>
+  </si>
+  <si>
+    <t>38/40</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -267,11 +273,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,11 +317,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,13 +668,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -737,7 +757,7 @@
       <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -754,7 +774,7 @@
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -771,7 +791,7 @@
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -7658,7 +7678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7686,13 +7706,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -7775,7 +7795,7 @@
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -7792,7 +7812,7 @@
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -7809,7 +7829,7 @@
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -14694,63 +14714,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E997"/>
+  <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="26" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
+    <col min="7" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -14759,21 +14782,21 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -14782,14 +14805,14 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -14806,11 +14829,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -14823,11 +14846,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -14840,11 +14863,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -14857,7 +14880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
@@ -14867,18 +14890,21 @@
       <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="F16" s="17" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="12" t="s">
